--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenSource\z88dk-bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369488B3-C0EE-406A-8666-8926DCCEB67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A63C50-ED75-416C-9348-5FADA19AE343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>compiler</t>
   </si>
@@ -98,6 +98,12 @@
   <si>
     <t>Suma de  time(ms)</t>
   </si>
+  <si>
+    <t>sccz80-classic</t>
+  </si>
+  <si>
+    <t>sccz80-new</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,31 +134,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="right"/>
     </dxf>
@@ -192,7 +204,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[graph.xlsx]Graph!TablaDinámica2</c:name>
+    <c:name>[benchmarks.xlsx]Graph!TablaDinámica2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1560,7 +1572,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2AFB877-D027-4C90-A4D4-A68E510C4F5E}" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2AFB877-D027-4C90-A4D4-A68E510C4F5E}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -1624,7 +1636,7 @@
     <dataField name="Suma de  time(ms)" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -1719,16 +1731,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBFCE38-E217-4E83-91A4-4A43DD150E92}" name="results" displayName="results" ref="A1:G13" totalsRowShown="0">
-  <autoFilter ref="A1:G13" xr:uid="{CCBFCE38-E217-4E83-91A4-4A43DD150E92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBFCE38-E217-4E83-91A4-4A43DD150E92}" name="results" displayName="results" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9" xr:uid="{CCBFCE38-E217-4E83-91A4-4A43DD150E92}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3D679AED-620D-4110-A991-6FE5D6DE6A38}" name="compiler" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{3D679AED-620D-4110-A991-6FE5D6DE6A38}" name="compiler" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{50CD3935-8BD4-43D7-8C4F-E8010D4496F7}" name=" compiled-size"/>
     <tableColumn id="3" xr3:uid="{65493495-318F-4397-B5F1-1CC27DA75D1A}" name=" tap-size"/>
     <tableColumn id="4" xr3:uid="{3E10629F-C516-4743-A105-3A8D754E487B}" name=" empty-project-tap-size"/>
-    <tableColumn id="5" xr3:uid="{B7B7CF54-810C-43DF-9C0D-297A0887CEC4}" name=" test" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B7B7CF54-810C-43DF-9C0D-297A0887CEC4}" name=" test" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{EE01FD54-F3D2-4FA9-A6C3-225B2EEE4C47}" name=" time(ms)"/>
-    <tableColumn id="7" xr3:uid="{1E91D168-52EA-41CF-9995-EA8F45942C63}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{1E91D168-52EA-41CF-9995-EA8F45942C63}" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1997,13 +2009,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECF1D74-EDE2-4E13-B07C-5B1FAA680F97}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -2221,22 +2235,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>2523</v>
-      </c>
-      <c r="C10">
-        <v>4996</v>
-      </c>
-      <c r="D10">
-        <v>2131</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>554</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
-      </c>
-      <c r="F10">
-        <v>5640</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -2244,22 +2249,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>2523</v>
-      </c>
-      <c r="C11">
-        <v>4996</v>
-      </c>
-      <c r="D11">
-        <v>2131</v>
+        <v>20</v>
+      </c>
+      <c r="D11" s="4">
+        <v>554</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
-      </c>
-      <c r="F11">
-        <v>3500</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -2267,22 +2263,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>2523</v>
-      </c>
-      <c r="C12">
-        <v>4996</v>
-      </c>
-      <c r="D12">
-        <v>2131</v>
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
+        <v>554</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
-      </c>
-      <c r="F12">
-        <v>3480</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -2290,31 +2277,116 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>2523</v>
-      </c>
-      <c r="C13">
-        <v>4996</v>
-      </c>
-      <c r="D13">
-        <v>2131</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="4">
+        <v>554</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2523</v>
+      </c>
+      <c r="C14">
+        <v>4996</v>
+      </c>
+      <c r="D14">
+        <v>2131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>5640</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>2523</v>
+      </c>
+      <c r="C15">
+        <v>4996</v>
+      </c>
+      <c r="D15">
+        <v>2131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>3500</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>2523</v>
+      </c>
+      <c r="C16">
+        <v>4996</v>
+      </c>
+      <c r="D16">
+        <v>2131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>3480</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>2523</v>
+      </c>
+      <c r="C17">
+        <v>4996</v>
+      </c>
+      <c r="D17">
+        <v>2131</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
         <v>4060</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G17" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2323,7 +2395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2354,13 +2426,13 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2368,13 +2440,13 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>5640</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>3120</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>3060</v>
       </c>
     </row>
@@ -2382,13 +2454,13 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>4060</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>1540</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>1560</v>
       </c>
     </row>
@@ -2396,13 +2468,13 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>3500</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>3220</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>3180</v>
       </c>
     </row>
@@ -2410,13 +2482,13 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>3480</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>3220</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>3180</v>
       </c>
     </row>
@@ -2424,13 +2496,13 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>16680</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>11100</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>10980</v>
       </c>
     </row>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenSource\z88dk-bench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\OpenSource\z88dk-bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A63C50-ED75-416C-9348-5FADA19AE343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7923C103-EA20-4B61-8A2A-69648F9C7AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
     <sheet name="Graph" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-  </pivotCaches>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -40,63 +46,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
-  <si>
-    <t>compiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> compiled-size</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tap-size</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> empty-project-tap-size</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time(ms)</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>sdcc-newlib</t>
   </si>
   <si>
-    <t xml:space="preserve"> Addition</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Memcopy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Memset</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Function Call</t>
-  </si>
-  <si>
     <t>sdcc-classic</t>
-  </si>
-  <si>
-    <t>sccz80</t>
-  </si>
-  <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
-    <t>Etiquetas de columna</t>
-  </si>
-  <si>
-    <t>Suma de  time(ms)</t>
   </si>
   <si>
     <t>sccz80-classic</t>
@@ -104,12 +59,58 @@
   <si>
     <t>sccz80-new</t>
   </si>
+  <si>
+    <t>empty-project-size</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>test-project-size</t>
+  </si>
+  <si>
+    <t>empty-compiled-size</t>
+  </si>
+  <si>
+    <t>test-compiled-size</t>
+  </si>
+  <si>
+    <t>coremark</t>
+  </si>
+  <si>
+    <t>fpmark</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>memcpy</t>
+  </si>
+  <si>
+    <t>memset</t>
+  </si>
+  <si>
+    <t>malloc</t>
+  </si>
+  <si>
+    <t>benchmark</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,15 +119,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,39 +158,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Énfasis6" xfId="2" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -203,182 +217,63 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[benchmarks.xlsx]Graph!TablaDinámica2</c:name>
-    <c:fmtId val="1"/>
-  </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Benchmarks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -390,11 +285,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graph!$B$3:$B$4</c:f>
+              <c:f>results!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sccz80</c:v>
+                  <c:v>sdcc-newlib</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -411,48 +306,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graph!$A$5:$A$9</c:f>
+              <c:f>results!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v> Addition</c:v>
+                  <c:v>coremark</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> Function Call</c:v>
+                  <c:v>fpmark</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> Memcopy</c:v>
+                  <c:v>add</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> Memset</c:v>
+                  <c:v>call</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>memcpy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>memset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malloc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graph!$B$5:$B$9</c:f>
+              <c:f>results!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5640</c:v>
+                  <c:v>6680</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4060</c:v>
+                  <c:v>6640</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3500</c:v>
+                  <c:v>2640</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3480</c:v>
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6340</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3837-4502-B681-92B7DF8A5904}"/>
+              <c16:uniqueId val="{00000000-C00A-4691-A81F-AF9D8DFA8214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -461,7 +374,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graph!$C$3:$C$4</c:f>
+              <c:f>results!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -482,48 +395,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graph!$A$5:$A$9</c:f>
+              <c:f>results!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v> Addition</c:v>
+                  <c:v>coremark</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> Function Call</c:v>
+                  <c:v>fpmark</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> Memcopy</c:v>
+                  <c:v>add</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> Memset</c:v>
+                  <c:v>call</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>memcpy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>memset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malloc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graph!$C$5:$C$9</c:f>
+              <c:f>results!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3120</c:v>
+                  <c:v>6220</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1540</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3220</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3220</c:v>
+                <c:pt idx="4">
+                  <c:v>6440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3837-4502-B681-92B7DF8A5904}"/>
+              <c16:uniqueId val="{00000001-C00A-4691-A81F-AF9D8DFA8214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -532,11 +463,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graph!$D$3:$D$4</c:f>
+              <c:f>results!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sdcc-newlib</c:v>
+                  <c:v>sccz80-new</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -553,48 +484,155 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graph!$A$5:$A$9</c:f>
+              <c:f>results!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v> Addition</c:v>
+                  <c:v>coremark</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> Function Call</c:v>
+                  <c:v>fpmark</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> Memcopy</c:v>
+                  <c:v>add</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> Memset</c:v>
+                  <c:v>call</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>memcpy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>memset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malloc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graph!$D$5:$D$9</c:f>
+              <c:f>results!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3060</c:v>
+                  <c:v>16020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1560</c:v>
+                  <c:v>15140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3180</c:v>
+                  <c:v>4860</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3180</c:v>
+                  <c:v>4040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3837-4502-B681-92B7DF8A5904}"/>
+              <c16:uniqueId val="{00000002-C00A-4691-A81F-AF9D8DFA8214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sccz80-classic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>coremark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fpmark</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>add</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>call</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>memcpy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>memset</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>malloc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16040</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4060</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6940</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C00A-4691-A81F-AF9D8DFA8214}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -608,11 +646,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="440583311"/>
-        <c:axId val="440576591"/>
+        <c:axId val="632017712"/>
+        <c:axId val="632018192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="440583311"/>
+        <c:axId val="632017712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +693,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440576591"/>
+        <c:crossAx val="632018192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -663,7 +701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440576591"/>
+        <c:axId val="632018192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,7 +752,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440583311"/>
+        <c:crossAx val="632017712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -727,7 +765,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -760,13 +798,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -798,22 +829,562 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>empty-project-size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$K$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sdcc-newlib</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdcc-classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sccz80-new</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sccz80-classic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7469-4CC8-8170-FD4994DE81EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>empty-compiled-size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$K$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sdcc-newlib</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdcc-classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sccz80-new</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sccz80-classic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$K$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7469-4CC8-8170-FD4994DE81EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test-project-size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$K$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sdcc-newlib</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdcc-classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sccz80-new</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sccz80-classic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$K$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7469-4CC8-8170-FD4994DE81EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test-compiled-size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$K$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sdcc-newlib</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdcc-classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sccz80-new</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sccz80-classic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$K$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7469-4CC8-8170-FD4994DE81EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="636512240"/>
+        <c:axId val="636518480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="636512240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636518480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636518480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636512240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -857,7 +1428,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1365,22 +2479,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1181099</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50908123-0576-C6B6-85DB-F7F8DB74D684}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514F4F5E-766B-C9A7-BD6D-D1D790DB6884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,351 +2512,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B88C249-D67A-C25F-653F-F7B0E66DF62A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David González Zornoza" refreshedDate="46033.493119675928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{56C06DE9-CDB2-412D-A332-D5328C20644B}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="results"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="compiler" numFmtId="0">
-      <sharedItems count="3">
-        <s v="sdcc-newlib"/>
-        <s v="sdcc-classic"/>
-        <s v="sccz80"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name=" compiled-size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2367" maxValue="2523" count="3">
-        <n v="2404"/>
-        <n v="2367"/>
-        <n v="2523"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name=" tap-size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3262" maxValue="4996" count="3">
-        <n v="3262"/>
-        <n v="4838"/>
-        <n v="4996"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name=" empty-project-tap-size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="554" maxValue="2131" count="3">
-        <n v="554"/>
-        <n v="2098"/>
-        <n v="2131"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name=" test" numFmtId="0">
-      <sharedItems count="4">
-        <s v=" Addition"/>
-        <s v=" Memcopy"/>
-        <s v=" Memset"/>
-        <s v=" Function Call"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name=" time(ms)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1540" maxValue="5640"/>
-    </cacheField>
-    <cacheField name="Column1" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F40A1E8-C311-4A08-9A4F-D62B55EFD312}" name="Tabla1" displayName="Tabla1" ref="A1:E8" totalsRowShown="0" headerRowCellStyle="20% - Énfasis6">
+  <autoFilter ref="A1:E8" xr:uid="{7F40A1E8-C311-4A08-9A4F-D62B55EFD312}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BFA18D65-EE61-4955-BDA8-9E37361E50D3}" name="benchmark"/>
+    <tableColumn id="2" xr3:uid="{D9731FF1-24C3-4BF3-9D9F-788E9ACA1CCB}" name="sdcc-newlib"/>
+    <tableColumn id="3" xr3:uid="{95D3BE41-86FD-4A0E-BE05-558ACB48B6B8}" name="sdcc-classic"/>
+    <tableColumn id="4" xr3:uid="{7EAE292B-1ACE-419E-9FB0-122B4C027CA4}" name="sccz80-new"/>
+    <tableColumn id="5" xr3:uid="{A366EAEA-D70D-46A7-9940-69F4E1C73B2B}" name="sccz80-classic"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3060"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="3180"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="3180"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="1560"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3120"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="3220"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3220"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="1540"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="5640"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="3500"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="3480"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="4060"/>
-    <s v=""/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2AFB877-D027-4C90-A4D4-A68E510C4F5E}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de  time(ms)" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBFCE38-E217-4E83-91A4-4A43DD150E92}" name="results" displayName="results" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{CCBFCE38-E217-4E83-91A4-4A43DD150E92}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3D679AED-620D-4110-A991-6FE5D6DE6A38}" name="compiler" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{50CD3935-8BD4-43D7-8C4F-E8010D4496F7}" name=" compiled-size"/>
-    <tableColumn id="3" xr3:uid="{65493495-318F-4397-B5F1-1CC27DA75D1A}" name=" tap-size"/>
-    <tableColumn id="4" xr3:uid="{3E10629F-C516-4743-A105-3A8D754E487B}" name=" empty-project-tap-size"/>
-    <tableColumn id="5" xr3:uid="{B7B7CF54-810C-43DF-9C0D-297A0887CEC4}" name=" test" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{EE01FD54-F3D2-4FA9-A6C3-225B2EEE4C47}" name=" time(ms)"/>
-    <tableColumn id="7" xr3:uid="{1E91D168-52EA-41CF-9995-EA8F45942C63}" name="Column1" dataDxfId="1"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{576C5993-4EDD-4153-A234-24F16F485DC9}" name="Tabla2" displayName="Tabla2" ref="J1:N5" totalsRowShown="0" headerRowCellStyle="20% - Énfasis1">
+  <autoFilter ref="J1:N5" xr:uid="{576C5993-4EDD-4153-A234-24F16F485DC9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{885A571F-6D3D-4326-9173-A148F380DFB4}" name="feature"/>
+    <tableColumn id="2" xr3:uid="{A8A8950A-C6B5-48AE-8D1B-84392B0D6348}" name="sdcc-newlib"/>
+    <tableColumn id="3" xr3:uid="{164BAB46-1ECB-48AB-8642-AC10A9DD5E02}" name="sdcc-classic"/>
+    <tableColumn id="4" xr3:uid="{E3766A78-DB38-45BC-9F2D-F13A9DA9FC0D}" name="sccz80-new"/>
+    <tableColumn id="5" xr3:uid="{06959796-B4D7-4383-A5CA-3A6A7DBC4892}" name="sccz80-classic"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2009,506 +2842,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECF1D74-EDE2-4E13-B07C-5B1FAA680F97}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>6680</v>
+      </c>
+      <c r="C2">
+        <v>6220</v>
+      </c>
+      <c r="D2">
+        <v>16020</v>
+      </c>
+      <c r="E2">
+        <v>16040</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K2">
+        <v>474</v>
+      </c>
+      <c r="L2">
+        <v>2018</v>
+      </c>
+      <c r="M2">
+        <v>474</v>
+      </c>
+      <c r="N2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>6640</v>
+      </c>
+      <c r="C3">
+        <v>6680</v>
+      </c>
+      <c r="D3">
+        <v>15140</v>
+      </c>
+      <c r="E3">
+        <v>14600</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2640</v>
+      </c>
+      <c r="C4">
+        <v>2680</v>
+      </c>
+      <c r="D4">
+        <v>4860</v>
+      </c>
+      <c r="E4">
+        <v>4860</v>
+      </c>
+      <c r="J4" t="s">
         <v>6</v>
       </c>
+      <c r="K4">
+        <v>6749</v>
+      </c>
+      <c r="L4">
+        <v>8439</v>
+      </c>
+      <c r="M4">
+        <v>7399</v>
+      </c>
+      <c r="N4">
+        <v>9073</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2404</v>
-      </c>
-      <c r="C2">
-        <v>3262</v>
-      </c>
-      <c r="D2">
-        <v>554</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1540</v>
+      </c>
+      <c r="C5">
+        <v>1540</v>
+      </c>
+      <c r="D5">
+        <v>4040</v>
+      </c>
+      <c r="E5">
+        <v>4060</v>
+      </c>
+      <c r="J5" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>3060</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="K5">
+        <v>4881</v>
+      </c>
+      <c r="L5">
+        <v>4872</v>
+      </c>
+      <c r="M5">
+        <v>5398</v>
+      </c>
+      <c r="N5">
+        <v>5398</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>2404</v>
-      </c>
-      <c r="C3">
-        <v>3262</v>
-      </c>
-      <c r="D3">
-        <v>554</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>3180</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2404</v>
-      </c>
-      <c r="C4">
-        <v>3262</v>
-      </c>
-      <c r="D4">
-        <v>554</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>3180</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2404</v>
-      </c>
-      <c r="C5">
-        <v>3262</v>
-      </c>
-      <c r="D5">
-        <v>554</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>1560</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>2367</v>
+        <v>6340</v>
       </c>
       <c r="C6">
-        <v>4838</v>
+        <v>6440</v>
       </c>
       <c r="D6">
-        <v>2098</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>3120</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
+        <v>6960</v>
+      </c>
+      <c r="E6">
+        <v>6960</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>2367</v>
+        <v>6340</v>
       </c>
       <c r="C7">
-        <v>4838</v>
+        <v>6440</v>
       </c>
       <c r="D7">
-        <v>2098</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>3220</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
+        <v>6960</v>
+      </c>
+      <c r="E7">
+        <v>6940</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>2367</v>
+        <v>6160</v>
       </c>
       <c r="C8">
-        <v>4838</v>
+        <v>6360</v>
       </c>
       <c r="D8">
-        <v>2098</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>3220</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
+        <v>15380</v>
+      </c>
+      <c r="E8">
+        <v>15580</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>2367</v>
-      </c>
-      <c r="C9">
-        <v>4838</v>
-      </c>
-      <c r="D9">
-        <v>2098</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>1540</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4">
-        <v>554</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4">
-        <v>554</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4">
-        <v>554</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="4">
-        <v>554</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>2523</v>
-      </c>
-      <c r="C14">
-        <v>4996</v>
-      </c>
-      <c r="D14">
-        <v>2131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>5640</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>2523</v>
-      </c>
-      <c r="C15">
-        <v>4996</v>
-      </c>
-      <c r="D15">
-        <v>2131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>3500</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>2523</v>
-      </c>
-      <c r="C16">
-        <v>4996</v>
-      </c>
-      <c r="D16">
-        <v>2131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>3480</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>2523</v>
-      </c>
-      <c r="C17">
-        <v>4996</v>
-      </c>
-      <c r="D17">
-        <v>2131</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>4060</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D9"/>
+  <dimension ref="B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>5640</v>
-      </c>
-      <c r="C5">
-        <v>3120</v>
-      </c>
-      <c r="D5">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>4060</v>
-      </c>
-      <c r="C6">
-        <v>1540</v>
-      </c>
-      <c r="D6">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3500</v>
-      </c>
-      <c r="C7">
-        <v>3220</v>
-      </c>
-      <c r="D7">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>3480</v>
-      </c>
-      <c r="C8">
-        <v>3220</v>
-      </c>
-      <c r="D8">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>16680</v>
-      </c>
-      <c r="C9">
-        <v>11100</v>
-      </c>
-      <c r="D9">
-        <v>10980</v>
-      </c>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
